--- a/Q-learning Artigos/Lista.xlsx
+++ b/Q-learning Artigos/Lista.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +446,7 @@
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>

--- a/Q-learning Artigos/Lista.xlsx
+++ b/Q-learning Artigos/Lista.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Chapter 18
 A Q-Learning Approach for Investment
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>Capítulo de livro</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +477,9 @@
       <c r="D2" s="4">
         <v>2016</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
